--- a/src/test/resources/testscript.xlsx
+++ b/src/test/resources/testscript.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="2550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="valid" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
   <si>
     <t>imdbReleaseDate</t>
   </si>
@@ -26,9 +27,6 @@
   </si>
   <si>
     <t>wikiCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>17 December 2021</t>
@@ -383,13 +381,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.453125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="24.08984375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.1796875" collapsed="true"/>
   </cols>
@@ -410,16 +408,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
